--- a/biology/Botanique/Parc_de_la_Trinité/Parc_de_la_Trinité.xlsx
+++ b/biology/Botanique/Parc_de_la_Trinité/Parc_de_la_Trinité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_la_Trinit%C3%A9</t>
+          <t>Parc_de_la_Trinité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Trinité est un parc urbain de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. Situé à Saint-Denis, le chef-lieu, cet espace vert aménagé était autrefois une simple esplanade à l'abandon qui accueillit en 1989 des célébrations religieuses lors de la visite du pape Jean-Paul II dans l'île.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_la_Trinit%C3%A9</t>
+          <t>Parc_de_la_Trinité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Article connexe
-Saint-Denis (La Réunion).
+          <t>Article connexe</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saint-Denis (La Réunion).
  Portail de l’architecture et de l’urbanisme   Portail de Saint-Denis   Portail des espaces verts                   </t>
         </is>
       </c>
